--- a/data/STATS 24-25.xlsx
+++ b/data/STATS 24-25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totti/Developer/fun/tamarindi-web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51778D00-C067-2946-98FA-BC34516A3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3218C973-677B-4A48-AA14-B9CE8277D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1843,7 +1843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY555"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2349,7 +2351,9 @@
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
-      <c r="D6" s="10"/>
+      <c r="D6" s="10">
+        <v>12</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="14">
@@ -3373,7 +3377,9 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>69</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="14">
@@ -3471,7 +3477,9 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>9</v>
+      </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="14">
@@ -4723,7 +4731,9 @@
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10">
+        <v>45</v>
+      </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="14">
@@ -5127,7 +5137,9 @@
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10">
+        <v>99</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="14">
@@ -5229,7 +5241,9 @@
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>98</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="14">

--- a/data/STATS 24-25.xlsx
+++ b/data/STATS 24-25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/totti/Developer/fun/tamarindi-web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3218C973-677B-4A48-AA14-B9CE8277D4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C97F4B-2BEB-7A42-B197-0A34F10E23A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1843,8 +1843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY555"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -13822,7 +13822,7 @@
     </row>
     <row r="134" spans="1:77" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="19">
-        <v>45708</v>
+        <v>45736</v>
       </c>
       <c r="B134" s="25"/>
       <c r="C134" s="21" t="s">
